--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -778,6 +778,9 @@
       <c r="C41" t="str">
         <v>172_入梦_Imagine_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -839,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04020126891015151212502010101020515501028911410271120100202310102010151080</v>
+        <v>04020126891015151212502010101020515501028911410271120100202310102010151081</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -782,9 +782,175 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>9</v>
+      </c>
+      <c r="C42" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>265_星悦宝贝_Moon baby spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>422_粉黛_pink muhly grass_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>10</v>
+      </c>
+      <c r="C51" t="str">
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>252_露露公主_Princess Lulu_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>262_多头冰淇淋_ice cream spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>156_摩卡/太妃糖_Toffee_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>172_入梦_Imagine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -842,7 +1008,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04020126891015151212502010101020515501028911410271120100202310102010151081</v>
+        <v>0402012689101515121250201010102051550102891141027112010020231010201015108152111101010201030765556551440</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -947,6 +947,9 @@
       <c r="C61" t="str">
         <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F61" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1008,7 +1011,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0402012689101515121250201010102051550102891141027112010020231010201015108152111101010201030765556551440</v>
+        <v>0402012689101515121250201010102051550102891141027112010020231010201015108152111101010201030765556551446</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -951,9 +951,89 @@
         <v>6</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>11</v>
+      </c>
+      <c r="C62" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>575_迷你菊粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1011,7 +1091,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0402012689101515121250201010102051550102891141027112010020231010201015108152111101010201030765556551446</v>
+        <v>04020126891015151212502010101020515501028911410271120100202310102010151081521111010102010307655565514461030201020101040100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -1030,6 +1030,9 @@
       <c r="C71" t="str">
         <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
       </c>
+      <c r="F71" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1091,7 +1094,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04020126891015151212502010101020515501028911410271120100202310102010151081521111010102010307655565514461030201020101040100</v>
+        <v>04020126891015151212502010101020515501028911410271120100202310102010151081521111010102010307655565514461030201020101040101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -1031,7 +1031,7 @@
         <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
       </c>
       <c r="F71" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1094,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04020126891015151212502010101020515501028911410271120100202310102010151081521111010102010307655565514461030201020101040101</v>
+        <v>040201268910151512125020101010205155010289114102711201002023101020101510815211110101020103076555655144610302010201010401010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1034,9 +1034,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>12</v>
+      </c>
+      <c r="C72" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F73" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F74" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>13</v>
+      </c>
+      <c r="C75" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F76" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>15_深紫洋桔梗_Dark Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F78" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F79" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1094,7 +1177,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040201268910151512125020101010205155010289114102711201002023101020101510815211110101020103076555655144610302010201010401010</v>
+        <v>0402012689101515121250201010102051550102891141027112010020231010201015108152111101010201030765556551446103020102010104010101040601020102030100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -1116,6 +1116,9 @@
       <c r="C81" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F81" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1177,7 +1180,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0402012689101515121250201010102051550102891141027112010020231010201015108152111101010201030765556551446103020102010104010101040601020102030100</v>
+        <v>0402012689101515121250201010102051550102891141027112010020231010201015108152111101010201030765556551446103020102010104010101040601020102030101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -1117,7 +1117,7 @@
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F81" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1180,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0402012689101515121250201010102051550102891141027112010020231010201015108152111101010201030765556551446103020102010104010101040601020102030101</v>
+        <v>04020126891015151212502010101020515501028911410271120100202310102010151081521111010102010307655565514461030201020101040101010406010201020301010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -515,6 +515,9 @@
       </c>
     </row>
     <row r="10">
+      <c r="C10" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
       <c r="F10" t="str">
         <v>15</v>
       </c>

--- a/DateBase/orders/推推_2024-10-15.xlsx
+++ b/DateBase/orders/推推_2024-10-15.xlsx
@@ -1185,6 +1185,9 @@
       <c r="G2" t="str">
         <v>04020126891015151212502010101020515501028911410271120100202310102010151081521111010102010307655565514461030201020101040101010406010201020301010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
